--- a/Brembana profile/4528/ТО ЧПУ Brembana profile 4528 на 2022 год.xlsx
+++ b/Brembana profile/4528/ТО ЧПУ Brembana profile 4528 на 2022 год.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="110">
   <si>
     <t xml:space="preserve">Плановое техобслуживание ЧПУ Brembana profile 4528 инв.№55550185 для операторов</t>
   </si>
@@ -146,7 +146,25 @@
     <t xml:space="preserve">Кисточка, растворитель 646, ветошь</t>
   </si>
   <si>
-    <t xml:space="preserve">Чистка фотоэлементов:                                                                                   Очищать линзы фотоэлементов смоченной водой ветошью.</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="24"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Чистка фотоэлементов:                                                                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Очищать линзы фотоэлементов смоченной водой ветошью.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -262,8 +280,26 @@
     <t xml:space="preserve">Смазка штоков присосов.</t>
   </si>
   <si>
-    <t xml:space="preserve">Чистка кожухов и проверка целостности:                                                  Для предотвращения забивания кожухов, монтированных на обрабатывающем центре, необходимо произвести очистку при использовании сначала сжатого воздуха, а затем ветоши.
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="24"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Чистка кожухов и проверка целостности:                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Для предотвращения забивания кожухов, монтированных на обрабатывающем центре, необходимо произвести очистку при использовании сначала сжатого воздуха, а затем ветоши.
 Проверять состояние изнашивая кожухов: в случае наличия проколов, разрывов, повреждений и т.д., незамедлительно предупредить службу механиков для замены.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">1 раз в неделю</t>
@@ -296,10 +332,7 @@
     <t xml:space="preserve">Слесарный инструмент</t>
   </si>
   <si>
-    <t xml:space="preserve">Чистка шлангов вакуумного насоса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чистка баков</t>
+    <t xml:space="preserve">Чистка баков, шлангов</t>
   </si>
   <si>
     <t xml:space="preserve">Уборка оборудования от пыли, лишних предметов</t>
@@ -590,7 +623,10 @@
     <t xml:space="preserve">Проверка останова нулевой точки детали и штыря щупа</t>
   </si>
   <si>
-    <t xml:space="preserve">Чистка баков, поддонов, уборка оборудования от пыли, лишних предметов за оборудованием</t>
+    <t xml:space="preserve">Чистка баков, поддонов, шлангов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уборка оборудования от пыли, лишних предметов за оборудованием</t>
   </si>
   <si>
     <t xml:space="preserve">Чистка и техобслуживание рециркуляционных баков для воды (по мере необходимости)</t>
@@ -654,9 +690,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -724,7 +761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -737,6 +774,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -765,7 +809,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -810,8 +854,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -846,7 +902,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -987,15 +1043,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2305800</xdr:colOff>
+      <xdr:colOff>2503080</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4831920</xdr:colOff>
+      <xdr:colOff>5028480</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>4166640</xdr:rowOff>
+      <xdr:rowOff>4356000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1008,8 +1064,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14603760" y="18858600"/>
-          <a:ext cx="5074920" cy="4167000"/>
+          <a:off x="14801040" y="19048680"/>
+          <a:ext cx="5074200" cy="4166280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1030,9 +1086,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5028120</xdr:colOff>
+      <xdr:colOff>5027400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1046,7 +1102,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14846760" y="14061600"/>
-          <a:ext cx="5028120" cy="2470320"/>
+          <a:ext cx="5027400" cy="2469600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1067,9 +1123,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5082120</xdr:colOff>
+      <xdr:colOff>5081400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2318400</xdr:rowOff>
+      <xdr:rowOff>2317680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1083,7 +1139,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14846760" y="16468560"/>
-          <a:ext cx="5082120" cy="2318400"/>
+          <a:ext cx="5081400" cy="2317680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1104,9 +1160,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4979880</xdr:colOff>
+      <xdr:colOff>4979160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>4056480</xdr:rowOff>
+      <xdr:rowOff>4055760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1120,7 +1176,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14886000" y="42836040"/>
-          <a:ext cx="4940640" cy="4056840"/>
+          <a:ext cx="4939920" cy="4056120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1141,9 +1197,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4712400</xdr:colOff>
+      <xdr:colOff>4711680</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>4060440</xdr:rowOff>
+      <xdr:rowOff>4059720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1157,7 +1213,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14846760" y="46917720"/>
-          <a:ext cx="4712400" cy="4060440"/>
+          <a:ext cx="4711680" cy="4059720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1178,9 +1234,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4321800</xdr:colOff>
+      <xdr:colOff>4321080</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>4397040</xdr:rowOff>
+      <xdr:rowOff>4396320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1194,7 +1250,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15703200" y="24063840"/>
-          <a:ext cx="3465360" cy="4385880"/>
+          <a:ext cx="3464640" cy="4385160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1215,9 +1271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073480</xdr:colOff>
+      <xdr:colOff>5072760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1231,7 +1287,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14846760" y="8973720"/>
-          <a:ext cx="5073480" cy="2342880"/>
+          <a:ext cx="5072760" cy="2342160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1252,9 +1308,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2410560</xdr:rowOff>
+      <xdr:rowOff>2409840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1268,7 +1324,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14877360" y="28528560"/>
-          <a:ext cx="5083920" cy="2352240"/>
+          <a:ext cx="5083200" cy="2351520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1289,9 +1345,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5073840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2343960</xdr:rowOff>
+      <xdr:rowOff>2343240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1305,7 +1361,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14846760" y="1447920"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:ext cx="5073840" cy="2343240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1326,9 +1382,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2343960</xdr:colOff>
+      <xdr:colOff>2343240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>5074560</xdr:rowOff>
+      <xdr:rowOff>5073840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1342,7 +1398,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14846760" y="3872160"/>
-          <a:ext cx="2343960" cy="5074560"/>
+          <a:ext cx="2343240" cy="5073840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1363,9 +1419,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4800960</xdr:colOff>
+      <xdr:colOff>4800240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>5058720</xdr:rowOff>
+      <xdr:rowOff>5058000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1379,7 +1435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17303760" y="3856320"/>
-          <a:ext cx="2343960" cy="5074560"/>
+          <a:ext cx="2343240" cy="5073840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1400,9 +1456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5065200</xdr:colOff>
+      <xdr:colOff>5064480</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>3889080</xdr:rowOff>
+      <xdr:rowOff>3888360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1416,7 +1472,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14846760" y="30963240"/>
-          <a:ext cx="5065200" cy="3889080"/>
+          <a:ext cx="5064480" cy="3888360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1437,9 +1493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5097240</xdr:colOff>
+      <xdr:colOff>5096520</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2359080</xdr:rowOff>
+      <xdr:rowOff>2358360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1453,7 +1509,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14846760" y="40404240"/>
-          <a:ext cx="5097240" cy="2359080"/>
+          <a:ext cx="5096520" cy="2358360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1467,16 +1523,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>39600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2529360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5094720</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>2415240</xdr:rowOff>
+      <xdr:colOff>5034960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2395440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1489,8 +1545,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14886360" y="60728040"/>
-          <a:ext cx="5055120" cy="2339280"/>
+          <a:off x="14827320" y="60758280"/>
+          <a:ext cx="5054400" cy="2338560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1511,9 +1567,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2374920</xdr:colOff>
+      <xdr:colOff>2374200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>5082480</xdr:rowOff>
+      <xdr:rowOff>5081760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1527,7 +1583,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14877720" y="35316000"/>
-          <a:ext cx="2343960" cy="5074560"/>
+          <a:ext cx="2343240" cy="5073840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1548,9 +1604,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5055480</xdr:colOff>
+      <xdr:colOff>5054760</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>5051880</xdr:rowOff>
+      <xdr:rowOff>5051160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1564,7 +1620,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17558280" y="35285400"/>
-          <a:ext cx="2343960" cy="5074560"/>
+          <a:ext cx="2343240" cy="5073840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1585,9 +1641,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4995360</xdr:colOff>
+      <xdr:colOff>4994640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2709720</xdr:rowOff>
+      <xdr:rowOff>2709000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1601,7 +1657,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14846760" y="11306160"/>
-          <a:ext cx="4995360" cy="2709720"/>
+          <a:ext cx="4994640" cy="2709000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1615,16 +1671,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2529360</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>4829040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5076000</xdr:colOff>
+      <xdr:colOff>5055840</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2345400</xdr:rowOff>
+      <xdr:rowOff>7173720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1637,8 +1693,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14846760" y="51045120"/>
-          <a:ext cx="5076000" cy="2345400"/>
+          <a:off x="14827320" y="55874160"/>
+          <a:ext cx="5075280" cy="2344680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1654,14 +1710,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5076000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>2345400</xdr:rowOff>
+      <xdr:colOff>5075280</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2344680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1674,8 +1730,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14846760" y="53449920"/>
-          <a:ext cx="5076000" cy="2345400"/>
+          <a:off x="14846760" y="51045120"/>
+          <a:ext cx="5075280" cy="2344680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1691,14 +1747,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>24480</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>2386800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4732200</xdr:rowOff>
+      <xdr:colOff>1800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4731480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1711,8 +1767,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14871240" y="55836720"/>
-          <a:ext cx="5076000" cy="2345400"/>
+          <a:off x="14871240" y="53431920"/>
+          <a:ext cx="5075280" cy="2344680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1728,14 +1784,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5076000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>2345400</xdr:rowOff>
+      <xdr:colOff>5075280</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2344680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1748,8 +1804,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14846760" y="58235760"/>
-          <a:ext cx="5076000" cy="2345400"/>
+          <a:off x="14846760" y="58285440"/>
+          <a:ext cx="5075280" cy="2344680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1775,9 +1831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3621240</xdr:colOff>
+      <xdr:colOff>3620520</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2571840</xdr:rowOff>
+      <xdr:rowOff>2571120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1791,7 +1847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12509640" y="1432080"/>
-          <a:ext cx="2042640" cy="2585520"/>
+          <a:ext cx="2041920" cy="2584800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1812,9 +1868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5048280</xdr:colOff>
+      <xdr:colOff>5047560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>3013560</xdr:rowOff>
+      <xdr:rowOff>3012840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1828,7 +1884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10931040" y="4059720"/>
-          <a:ext cx="5048280" cy="3013560"/>
+          <a:ext cx="5047560" cy="3012840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1849,9 +1905,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4214520</xdr:colOff>
+      <xdr:colOff>4213800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2755440</xdr:rowOff>
+      <xdr:rowOff>2754720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1865,7 +1921,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11789640" y="7471440"/>
-          <a:ext cx="3355920" cy="2755440"/>
+          <a:ext cx="3355200" cy="2754720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1886,9 +1942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8280</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2348640</xdr:rowOff>
+      <xdr:rowOff>2347920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1902,7 +1958,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10964160" y="18112680"/>
-          <a:ext cx="5073480" cy="2342880"/>
+          <a:ext cx="5072760" cy="2342160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1923,9 +1979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4744080</xdr:colOff>
+      <xdr:colOff>4743360</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2836440</xdr:rowOff>
+      <xdr:rowOff>2835720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1939,7 +1995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11510640" y="20615040"/>
-          <a:ext cx="4164480" cy="2823840"/>
+          <a:ext cx="4163760" cy="2823120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1960,9 +2016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4001760</xdr:colOff>
+      <xdr:colOff>4001040</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2864880</xdr:rowOff>
+      <xdr:rowOff>2864160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1976,7 +2032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11532960" y="28411200"/>
-          <a:ext cx="3399840" cy="2827440"/>
+          <a:ext cx="3399120" cy="2826720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1997,9 +2053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>10800</xdr:colOff>
+      <xdr:colOff>10080</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2593800</xdr:rowOff>
+      <xdr:rowOff>2593080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2013,7 +2069,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10942200" y="15635520"/>
-          <a:ext cx="5097240" cy="2359080"/>
+          <a:ext cx="5096520" cy="2358360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2034,9 +2090,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2343960</xdr:colOff>
+      <xdr:colOff>2343240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>5074560</xdr:rowOff>
+      <xdr:rowOff>5073840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2050,7 +2106,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10931040" y="10240560"/>
-          <a:ext cx="2343960" cy="5074560"/>
+          <a:ext cx="2343240" cy="5073840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2071,9 +2127,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5068800</xdr:colOff>
+      <xdr:colOff>5068080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>5095800</xdr:rowOff>
+      <xdr:rowOff>5095080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2087,7 +2143,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13655880" y="10261800"/>
-          <a:ext cx="2343960" cy="5074560"/>
+          <a:ext cx="2343240" cy="5073840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2108,9 +2164,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5073840</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>2343960</xdr:rowOff>
+      <xdr:rowOff>2343240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2124,6 +2180,80 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10931040" y="23509080"/>
+          <a:ext cx="5073840" cy="2343240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2439720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5095800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4782960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Изображение 26" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10953000" y="25948800"/>
+          <a:ext cx="5073840" cy="2343240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2343960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Изображение 29" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10931040" y="36410760"/>
           <a:ext cx="5074560" cy="2343960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2139,29 +2269,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>21960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2439720</xdr:rowOff>
+      <xdr:colOff>11520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5096520</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>4783680</xdr:rowOff>
+      <xdr:colOff>5047560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2494800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Изображение 26" descr=""/>
+        <xdr:cNvPr id="33" name="Изображение 32" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10953000" y="25948800"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="10942560" y="38837520"/>
+          <a:ext cx="5036040" cy="2484360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2176,29 +2306,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>540360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5075280</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2344680</xdr:rowOff>
+      <xdr:colOff>4005000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4415760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Изображение 29" descr=""/>
+        <xdr:cNvPr id="34" name="Изображение 33" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10931040" y="36410760"/>
-          <a:ext cx="5075280" cy="2344680"/>
+          <a:off x="11471400" y="72906480"/>
+          <a:ext cx="3464640" cy="4385160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2213,29 +2343,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>11520</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:colOff>1008000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5048280</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2495520</xdr:rowOff>
+      <xdr:colOff>3352320</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>5110560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Изображение 32" descr=""/>
+        <xdr:cNvPr id="35" name="Изображение 34" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10942560" y="38837520"/>
-          <a:ext cx="5036760" cy="2485080"/>
+          <a:off x="11939040" y="31304880"/>
+          <a:ext cx="2344320" cy="5074920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2250,29 +2380,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>540360</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:colOff>1229400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4005720</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4416480</xdr:rowOff>
+      <xdr:colOff>3573720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5110560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Изображение 33" descr=""/>
+        <xdr:cNvPr id="36" name="Изображение 35" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11471400" y="72906480"/>
-          <a:ext cx="3465360" cy="4385880"/>
+          <a:off x="12160440" y="41618160"/>
+          <a:ext cx="2344320" cy="5074920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2287,29 +2417,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1008000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:colOff>601920</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3353040</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>5111280</xdr:rowOff>
+      <xdr:colOff>4001040</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2768400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Изображение 34" descr=""/>
+        <xdr:cNvPr id="37" name="Изображение 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11939040" y="31304880"/>
-          <a:ext cx="2345040" cy="5075640"/>
+          <a:off x="11532960" y="70112880"/>
+          <a:ext cx="3399120" cy="2732040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2324,29 +2454,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1229400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3574440</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>5111280</xdr:rowOff>
+      <xdr:colOff>5096520</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3547440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Изображение 35" descr=""/>
+        <xdr:cNvPr id="38" name="Изображение 37" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12160440" y="41618160"/>
-          <a:ext cx="2345040" cy="5075640"/>
+          <a:off x="10931040" y="65732040"/>
+          <a:ext cx="5096520" cy="3547440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2361,29 +2491,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>601920</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:colOff>774720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4001760</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>2769120</xdr:rowOff>
+      <xdr:colOff>4265640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4917240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Изображение 15" descr=""/>
+        <xdr:cNvPr id="39" name="Изображение 38" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11532960" y="70112880"/>
-          <a:ext cx="3399840" cy="2732760"/>
+          <a:off x="11705760" y="46794960"/>
+          <a:ext cx="3490920" cy="4834080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2398,29 +2528,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>61560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4953240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5097240</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>3548160</xdr:rowOff>
+      <xdr:colOff>4962240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9615960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Изображение 37" descr=""/>
+        <xdr:cNvPr id="40" name="Изображение 39" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10931040" y="65732040"/>
-          <a:ext cx="5097240" cy="3548160"/>
+          <a:off x="10992600" y="51665040"/>
+          <a:ext cx="4900680" cy="4662720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2435,29 +2565,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>774720</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:colOff>675360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4266360</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>4917960</xdr:rowOff>
+      <xdr:colOff>4166280</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4977000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Изображение 38" descr=""/>
+        <xdr:cNvPr id="41" name="Изображение 40" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip r:embed="rId21"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11705760" y="46794960"/>
-          <a:ext cx="3491640" cy="4834800"/>
+          <a:off x="11606400" y="82293480"/>
+          <a:ext cx="3490920" cy="4834080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2472,29 +2602,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>61560</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>4953240</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4962960</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9616680</xdr:rowOff>
+      <xdr:colOff>5074920</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2344320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Изображение 39" descr=""/>
+        <xdr:cNvPr id="42" name="Изображение 41" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip r:embed="rId22"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10992600" y="51665040"/>
-          <a:ext cx="4901400" cy="4663440"/>
+          <a:off x="10931040" y="77341680"/>
+          <a:ext cx="5074920" cy="2344320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2509,29 +2639,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>675360</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4167000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>4977720</xdr:rowOff>
+      <xdr:colOff>5074920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2344320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Изображение 40" descr=""/>
+        <xdr:cNvPr id="43" name="Изображение 42" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip r:embed="rId23"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11606400" y="82293480"/>
-          <a:ext cx="3491640" cy="4834800"/>
+          <a:off x="10931040" y="79734240"/>
+          <a:ext cx="5074920" cy="2344320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2546,29 +2676,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>201960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>383760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5075640</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>2345040</xdr:rowOff>
+      <xdr:colOff>2545200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5457600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Изображение 41" descr=""/>
+        <xdr:cNvPr id="44" name="Изображение 30" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip r:embed="rId24"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10931040" y="77341680"/>
-          <a:ext cx="5075640" cy="2345040"/>
+          <a:off x="11133000" y="56774160"/>
+          <a:ext cx="2343240" cy="5073840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2583,29 +2713,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2637360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>425520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5075640</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>2345040</xdr:rowOff>
+      <xdr:colOff>4980600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5499360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Изображение 42" descr=""/>
+        <xdr:cNvPr id="45" name="Изображение 31" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip r:embed="rId25"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10931040" y="79734240"/>
-          <a:ext cx="5075640" cy="2345040"/>
+          <a:off x="13568400" y="56815920"/>
+          <a:ext cx="2343240" cy="5073840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2620,89 +2750,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>201960</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>383760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2545920</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>5458320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Изображение 30" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11133000" y="56774160"/>
-          <a:ext cx="2343960" cy="5074560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2637360</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>425520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4981320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>5500080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Изображение 31" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13568400" y="56815920"/>
-          <a:ext cx="2343960" cy="5074560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>380880</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4348800</xdr:colOff>
+      <xdr:colOff>4348080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>3425400</xdr:rowOff>
+      <xdr:rowOff>3424680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2716,7 +2772,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11311920" y="62273520"/>
-          <a:ext cx="3967920" cy="3425040"/>
+          <a:ext cx="3967200" cy="3424320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2738,8 +2794,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="50" zoomScaleNormal="65" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A18" colorId="64" zoomScale="50" zoomScaleNormal="65" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2827,7 +2883,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="216.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="11" t="n">
         <f aca="false">A6+1</f>
         <v>4</v>
       </c>
@@ -2843,7 +2899,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="189.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="11" t="n">
         <f aca="false">A7+1</f>
         <v>5</v>
       </c>
@@ -2853,7 +2909,7 @@
       <c r="E8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="188.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="11" t="n">
         <f aca="false">A8+1</f>
         <v>6</v>
       </c>
@@ -2863,9 +2919,8 @@
       <c r="E9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="408.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
-        <f aca="false">A9+1</f>
-        <v>7</v>
+      <c r="A10" s="12" t="n">
+        <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>15</v>
@@ -2879,9 +2934,9 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="347.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="11" t="n">
         <f aca="false">A10+1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>17</v>
@@ -2895,9 +2950,9 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="196.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="11" t="n">
         <f aca="false">A11+1</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>19</v>
@@ -2911,9 +2966,9 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="342.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="12" t="n">
         <f aca="false">A12+1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>20</v>
@@ -2927,9 +2982,9 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="401.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="11" t="n">
         <f aca="false">A13+1</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>22</v>
@@ -2943,9 +2998,9 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="191.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="11" t="n">
         <f aca="false">A14+1</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>24</v>
@@ -2959,9 +3014,9 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="321.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="12" t="n">
         <f aca="false">A15+1</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>25</v>
@@ -2975,11 +3030,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="325" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="11" t="n">
         <f aca="false">A16+1</f>
-        <v>14</v>
-      </c>
-      <c r="B17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -2990,12 +3045,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="189.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+    <row r="18" customFormat="false" ht="570.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="n">
         <f aca="false">A17+1</f>
-        <v>15</v>
-      </c>
-      <c r="B18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -3006,62 +3061,49 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="376.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+    <row r="19" customFormat="false" ht="190.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="n">
         <f aca="false">A18+1</f>
-        <v>16</v>
-      </c>
-      <c r="B19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="190.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="199.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="n">
         <f aca="false">A19+1</f>
-        <v>17</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="216.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
-        <f aca="false">A20+1</f>
-        <v>18</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="151.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="E7:E9"/>
@@ -3073,8 +3115,9 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="6" man="true" max="16383" min="0"/>
+    <brk id="15" man="true" max="16383" min="0"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" man="true" max="65535" min="0"/>
@@ -3096,7 +3139,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="105.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="72.25"/>
@@ -3107,7 +3150,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3118,13 +3161,13 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -3136,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>26</v>
@@ -3151,15 +3194,15 @@
         <f aca="false">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>38</v>
+      <c r="B5" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="218.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3168,14 +3211,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="406.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3183,15 +3226,15 @@
         <f aca="false">A6+1</f>
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>42</v>
+      <c r="B7" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="213.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3200,14 +3243,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3215,24 +3258,24 @@
         <f aca="false">A8+1</f>
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>46</v>
+      <c r="B9" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" s="16" customFormat="true" ht="228.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" s="19" customFormat="true" ht="228.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <f aca="false">A9+1</f>
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>47</v>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>26</v>
@@ -3247,31 +3290,31 @@
         <f aca="false">A10+1</f>
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>48</v>
+      <c r="B11" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" s="16" customFormat="true" ht="228" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" s="19" customFormat="true" ht="228" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <f aca="false">A11+1</f>
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>50</v>
+      <c r="B12" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="404.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3280,14 +3323,14 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="190.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3296,10 +3339,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="9" t="s">
@@ -3312,14 +3355,14 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="403.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3328,10 +3371,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="9" t="s">
@@ -3344,10 +3387,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="9" t="s">
@@ -3360,14 +3403,14 @@
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="272.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3376,14 +3419,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="342.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3392,14 +3435,14 @@
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="220.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3408,14 +3451,14 @@
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="351.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3424,10 +3467,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="9" t="s">
@@ -3439,11 +3482,11 @@
         <f aca="false">A22+1</f>
         <v>20</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>68</v>
+      <c r="B23" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>29</v>
@@ -3455,10 +3498,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="9" t="s">
@@ -3471,10 +3514,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="9" t="s">
@@ -3521,7 +3564,7 @@
   <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI21" activeCellId="0" sqref="AI21"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3571,50 +3614,50 @@
       <c r="AG1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="19" t="s">
-        <v>73</v>
+      <c r="B2" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
@@ -3625,10 +3668,10 @@
       <c r="D4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="21" t="n">
+      <c r="E4" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="21" t="n">
+      <c r="F4" s="24" t="n">
         <v>4</v>
       </c>
       <c r="G4" s="7" t="n">
@@ -3646,10 +3689,10 @@
       <c r="K4" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="L4" s="21" t="n">
+      <c r="L4" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="M4" s="21" t="n">
+      <c r="M4" s="24" t="n">
         <v>11</v>
       </c>
       <c r="N4" s="7" t="n">
@@ -3667,10 +3710,10 @@
       <c r="R4" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="S4" s="21" t="n">
+      <c r="S4" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="T4" s="21" t="n">
+      <c r="T4" s="24" t="n">
         <v>18</v>
       </c>
       <c r="U4" s="7" t="n">
@@ -3688,10 +3731,10 @@
       <c r="Y4" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="Z4" s="21" t="n">
+      <c r="Z4" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="AA4" s="21" t="n">
+      <c r="AA4" s="24" t="n">
         <v>25</v>
       </c>
       <c r="AB4" s="7" t="n">
@@ -3709,7 +3752,7 @@
       <c r="AF4" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="AG4" s="22" t="n">
+      <c r="AG4" s="25" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3718,1128 +3761,1122 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
       <c r="U5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
       <c r="AB5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG5" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="AG5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
       <c r="U6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
       <c r="AB6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG6" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="AG6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
       <c r="U7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
       <c r="AB7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG7" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="AG7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
       <c r="U8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
       <c r="AB8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG8" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="AG8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="106.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
       <c r="N9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
       <c r="U9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
       <c r="AB9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG9" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="AG9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>83</v>
+      <c r="B10" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
       <c r="N10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
       <c r="U10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
       <c r="AB10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG10" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="AG10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
       <c r="N11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
       <c r="U11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
       <c r="AB11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG11" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="AG11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
       <c r="N12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
       <c r="U12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
       <c r="AB12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG12" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="AG12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
       <c r="N13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
       <c r="U13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
       <c r="AB13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG13" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="AG13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
       <c r="N14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
       <c r="U14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
       <c r="AB14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG14" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="AG14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="80.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>88</v>
+      <c r="B15" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
       <c r="N15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
       <c r="U15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
       <c r="AB15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG15" s="23"/>
-    </row>
-    <row r="16" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="AG15" s="26"/>
+    </row>
+    <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>89</v>
+      <c r="B16" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
       <c r="N16" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
       <c r="U16" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
       <c r="AB16" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
-      <c r="AG16" s="22"/>
-    </row>
-    <row r="17" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG16" s="25"/>
+    </row>
+    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>30</v>
+      <c r="B17" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
       <c r="N17" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
       <c r="U17" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
       <c r="AB17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="23"/>
-    </row>
-    <row r="18" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="26"/>
+    </row>
+    <row r="18" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
       <c r="AB18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="23"/>
-    </row>
-    <row r="19" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="26"/>
+    </row>
+    <row r="19" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
-      <c r="AG19" s="22"/>
+      <c r="AG19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
-      <c r="AG20" s="22"/>
+      <c r="AG20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
@@ -4848,35 +4885,35 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
-      <c r="AG21" s="22"/>
+      <c r="AG21" s="25"/>
     </row>
     <row r="22" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
@@ -4885,35 +4922,35 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
-      <c r="AG22" s="22"/>
+      <c r="AG22" s="25"/>
     </row>
     <row r="23" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
@@ -4922,38 +4959,38 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
-      <c r="AG23" s="22"/>
+      <c r="AG23" s="25"/>
     </row>
     <row r="45" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="26"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="3"/>
     </row>
   </sheetData>
@@ -4999,7 +5036,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5036,44 +5073,44 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
@@ -5084,10 +5121,10 @@
       <c r="D4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="27" t="n">
+      <c r="E4" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="27" t="n">
+      <c r="F4" s="30" t="n">
         <v>4</v>
       </c>
       <c r="G4" s="7" t="n">
@@ -5105,10 +5142,10 @@
       <c r="K4" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="L4" s="27" t="n">
+      <c r="L4" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="M4" s="27" t="n">
+      <c r="M4" s="30" t="n">
         <v>11</v>
       </c>
       <c r="N4" s="7" t="n">
@@ -5126,10 +5163,10 @@
       <c r="R4" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="S4" s="27" t="n">
+      <c r="S4" s="30" t="n">
         <v>17</v>
       </c>
-      <c r="T4" s="27" t="n">
+      <c r="T4" s="30" t="n">
         <v>18</v>
       </c>
       <c r="U4" s="7" t="n">
@@ -5147,10 +5184,10 @@
       <c r="Y4" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="Z4" s="27" t="n">
+      <c r="Z4" s="30" t="n">
         <v>24</v>
       </c>
-      <c r="AA4" s="27" t="n">
+      <c r="AA4" s="30" t="n">
         <v>25</v>
       </c>
       <c r="AB4" s="7" t="n">
@@ -5168,7 +5205,7 @@
       <c r="AF4" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="AG4" s="28" t="n">
+      <c r="AG4" s="31" t="n">
         <v>31</v>
       </c>
     </row>
@@ -5181,45 +5218,45 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
       <c r="AF5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG5" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="AG5" s="32"/>
     </row>
     <row r="6" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -5231,45 +5268,45 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
       <c r="AF6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG6" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="AG6" s="32"/>
     </row>
     <row r="7" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -5281,45 +5318,45 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG7" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="AG7" s="32"/>
     </row>
     <row r="8" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -5331,45 +5368,45 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
       <c r="AF8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG8" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="AG8" s="32"/>
     </row>
     <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
@@ -5381,45 +5418,45 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG9" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="AG9" s="32"/>
     </row>
     <row r="10" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -5431,45 +5468,45 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG10" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="AG10" s="32"/>
     </row>
     <row r="11" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -5481,45 +5518,45 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG11" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="AG11" s="32"/>
     </row>
     <row r="12" customFormat="false" ht="81.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -5531,221 +5568,221 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG12" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="AG12" s="32"/>
     </row>
     <row r="13" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
         <f aca="false">A12+1</f>
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG13" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="AG13" s="32"/>
     </row>
     <row r="14" customFormat="false" ht="81.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
         <f aca="false">A13+1</f>
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
       <c r="P14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="32"/>
     </row>
     <row r="15" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
         <f aca="false">A14+1</f>
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
       <c r="P15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="32"/>
     </row>
     <row r="16" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
         <f aca="false">A15+1</f>
         <v>12</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>54</v>
+      <c r="B16" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
       <c r="P16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="32"/>
     </row>
     <row r="17" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -5753,41 +5790,41 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
       <c r="P17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="32"/>
     </row>
     <row r="18" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -5795,161 +5832,161 @@
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
       <c r="P18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="32"/>
     </row>
     <row r="19" customFormat="false" ht="81.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
         <f aca="false">A18+1</f>
         <v>15</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>58</v>
+      <c r="B19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="29"/>
-    </row>
-    <row r="20" s="34" customFormat="true" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="32"/>
+    </row>
+    <row r="20" s="37" customFormat="true" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
         <f aca="false">A19+1</f>
         <v>16</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
+      <c r="B20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
       <c r="P20" s="9"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="33"/>
-    </row>
-    <row r="21" s="34" customFormat="true" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="36"/>
+    </row>
+    <row r="21" s="37" customFormat="true" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
         <f aca="false">A20+1</f>
         <v>17</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
+      <c r="B21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="33"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="36"/>
     </row>
     <row r="22" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
@@ -5960,36 +5997,36 @@
         <v>106</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="29"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="32"/>
     </row>
     <row r="23" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
@@ -6000,196 +6037,196 @@
         <v>107</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="29"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="32"/>
     </row>
     <row r="24" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
         <f aca="false">A23+1</f>
         <v>20</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="29"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="32"/>
     </row>
     <row r="25" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
         <f aca="false">A24+1</f>
         <v>21</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>68</v>
+      <c r="B25" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="29"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="32"/>
     </row>
     <row r="26" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
         <f aca="false">A25+1</f>
         <v>22</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>69</v>
+      <c r="B26" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="29"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="32"/>
     </row>
     <row r="27" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
         <f aca="false">A26+1</f>
         <v>23</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>71</v>
+      <c r="B27" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
       <c r="P27" s="9"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="29"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="32"/>
     </row>
     <row r="28" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
@@ -6197,45 +6234,45 @@
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="29"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="32"/>
     </row>
     <row r="29" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="19"/>
+      <c r="B29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="35"/>
+      <c r="B30" s="38"/>
     </row>
     <row r="57" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="26"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="3"/>
     </row>
   </sheetData>
